--- a/medicine/Enfance/Jean_d'Agraives/Jean_d'Agraives.xlsx
+++ b/medicine/Enfance/Jean_d'Agraives/Jean_d'Agraives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_d%27Agraives</t>
+          <t>Jean_d'Agraives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean d'Agraives, nom de plume de Frédéric Causse, est écrivain et traducteur français né à Paris le 13 mai 1892 et mort à Paris le 21 octobre 1951[1]. Il utilisa les pseudonymes : Fred Maël, Fred Causse-Maël, Midship, Jacques et Jean d'Agrève, Jean d'Agrèves, avant d'opter pour le nom de plume Jean d'Agraives.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean d'Agraives, nom de plume de Frédéric Causse, est écrivain et traducteur français né à Paris le 13 mai 1892 et mort à Paris le 21 octobre 1951. Il utilisa les pseudonymes : Fred Maël, Fred Causse-Maël, Midship, Jacques et Jean d'Agrève, Jean d'Agrèves, avant d'opter pour le nom de plume Jean d'Agraives.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_d%27Agraives</t>
+          <t>Jean_d'Agraives</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Héritier littéraire de son père Charles Causse, qui avait connu son heure de gloire en littérature pour la jeunesse en publiant, sous le pseudonyme de Pierre Maël, des romans écrits en collaboration avec Charles Vincent, c’est sous le nom de Fred Maël que Jean d’Agraives publie en 1916 son premier roman, L'Île qui parle. Il en fait paraître quelques autres en 1916 et 1917 sous le nom de Fred Causse-Maël.
-En conflit avec les héritiers de Charles Vincent, il doit cependant renoncer à ce premier pseudonyme et opte pour le nom de Jean d’Agraives. Auteur de nombreux livres pour la jeunesse, principalement publiés dans la Bibliothèque verte des éditions Hachette, il a également écrit des romans populaires ainsi que des ciné-romans, tels que Vent debout ou Scaramouche, ce dernier titre lui valant un nouveau conflit juridique, cette fois avec l'auteur cette fois du roman original, Rafael Sabatini[2].
-Jean d'Agraives a publié au total une cinquantaine de romans[3].
+En conflit avec les héritiers de Charles Vincent, il doit cependant renoncer à ce premier pseudonyme et opte pour le nom de Jean d’Agraives. Auteur de nombreux livres pour la jeunesse, principalement publiés dans la Bibliothèque verte des éditions Hachette, il a également écrit des romans populaires ainsi que des ciné-romans, tels que Vent debout ou Scaramouche, ce dernier titre lui valant un nouveau conflit juridique, cette fois avec l'auteur cette fois du roman original, Rafael Sabatini.
+Jean d'Agraives a publié au total une cinquantaine de romans.
 Pendant l’Occupation de la France par l'Allemagne, il collabora à la radio de propagande allemande Radio Paris jusqu'en 1941, année où il a complété son activité d’auteur dans le domaine de la littérature de jeunesse pour aborder l’édition, avec la création successive de Colbert, puis des Deux Sirènes, qui publieront l’une comme l’autre un grand nombre de ses romans d'aventures ou des récits maritimes, exaltant généralement en ces temps controversés de l'État français les vertus de la France coloniale et militaire, à travers le portrait de marins ou de serviteurs de la Nation. Ainsi : Le Maître du Simoun, La Gloire sous les voiles, etc. L'épopée bonapartiste, voire napoléonienne, lui inspira encore L'Envol de l'aigle, La Frégate de l'empereur, L'Espionne de Nelson ou L'Aviateur de Bonaparte.
-Il figure sur la liste noire du CNE[4]. Le 16 juillet 1945, il fut condamné à huit mois de prison et à cinq ans d’indignité nationale, peine allégée car il avait aussi protégé des résistants.
+Il figure sur la liste noire du CNE. Le 16 juillet 1945, il fut condamné à huit mois de prison et à cinq ans d’indignité nationale, peine allégée car il avait aussi protégé des résistants.
 Il fut traducteur de romans anglais sous les pseudonymes Midship et Charles Bourhis.
 Ses livres, souvent réédités, connaissent un succès non démenti, jusqu’à sa mort en 1951.
-Les Sept Têtes du dragon vert
-Selon Serge Caillet, le véritable auteur du roman Les Sept Têtes du dragon vert, publié en 1933 sous le pseudonyme de Teddy Legrand, pourrait être Jean d'Agraives ou Pierre Mariel[5]. À moins que l'emploi du pseudonyme de Teddy Legrand n'indique une collaboration entre différentes personnes, dont Charles Lucieto, lequel a son nom cité plusieurs fois dans l'ouvrage[6], qu'un éditeur postérieur du livre, Energeia, attribue, lui, à Xavier de Hauteclocque[7].
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_d%27Agraives</t>
+          <t>Jean_d'Agraives</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les Sept Têtes du dragon vert</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Serge Caillet, le véritable auteur du roman Les Sept Têtes du dragon vert, publié en 1933 sous le pseudonyme de Teddy Legrand, pourrait être Jean d'Agraives ou Pierre Mariel. À moins que l'emploi du pseudonyme de Teddy Legrand n'indique une collaboration entre différentes personnes, dont Charles Lucieto, lequel a son nom cité plusieurs fois dans l'ouvrage, qu'un éditeur postérieur du livre, Energeia, attribue, lui, à Xavier de Hauteclocque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_d'Agraives</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_d%27Agraives</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(liste exhaustive)
 Romans
@@ -567,7 +618,7 @@
 1924 : L'Enjôleuse, roman d'après le film Erka (production Goldwyn-Cosmopolitan). coll. « Les Grands Films » no 14. Éditions de « Mon Ciné » (30 juin).
 1925 : Le Maître du Simoun. coll. « Bibliothèque verte ». Nouvelle Bibliothèque d'éducation et de récréation. Éd. Hachette. Réédition en 2008
 1925 : Le Petit Robinson, d'après le film de Jackie Coogan Le Petit Robinson Crusoë (1924). coll. « Bibliothèque de la jeunesse », Éd. Hachette.
-1926 : L'Aviateur de Bonaparte. coll. « Le livre du jeudi », fasc. 1-24, avril-oct-1926. Éd. Hachette[8]. Réédition en 2008, Monein, Éd. PyréMonde, coll. : Uchronie ; UC005,  (ISBN 2-84618-447-X) -  (ISBN 978-2-84618-447-2).
+1926 : L'Aviateur de Bonaparte. coll. « Le livre du jeudi », fasc. 1-24, avril-oct-1926. Éd. Hachette. Réédition en 2008, Monein, Éd. PyréMonde, coll. : Uchronie ; UC005,  (ISBN 2-84618-447-X) -  (ISBN 978-2-84618-447-2).
 1926 : Le Château du reliquaire (25 juin). Librairie Gedalge, Paris.
 1926 : Larmes de clown, roman d'après le film américain Larmes de clown (1924). Librairie Baudinière, Paris.
 1926 : Le Trois-mâts fantôme. Éditions cosmopolites.
